--- a/biology/Zoologie/Ctenochaetus_hawaiiensis/Ctenochaetus_hawaiiensis.xlsx
+++ b/biology/Zoologie/Ctenochaetus_hawaiiensis/Ctenochaetus_hawaiiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenochaetus hawaiiensis est une espèce de poissons de la famille des Acanthuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ctenochaetus hawaiiensis a été décrite en 1955 par l'ichtyologiste américain John Ernest Randall (1924-2020)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ctenochaetus hawaiiensis a été décrite en 1955 par l'ichtyologiste américain John Ernest Randall (1924-2020).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenochaetus hawaiiensis se rencontre dans l'océan Pacifique à travers une grande partie de l'Océanie, depuis la Micronésie, Wake et Minamitori-shima jusqu'à Hawaï et l'île Pitcairn[2].
-C'est une espèce de récifs présente entre 1 et 61 m de profondeur mais plus généralement entre 5 et 40 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenochaetus hawaiiensis se rencontre dans l'océan Pacifique à travers une grande partie de l'Océanie, depuis la Micronésie, Wake et Minamitori-shima jusqu'à Hawaï et l'île Pitcairn.
+C'est une espèce de récifs présente entre 1 et 61 m de profondeur mais plus généralement entre 5 et 40 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenochaetus hawaiiensis peut mesurer jusqu'à 25 cm de longueur totale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenochaetus hawaiiensis peut mesurer jusqu'à 25 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En aquariophilie, ce poisson se nourrit d'artémias, de krills et mysis sans oublier que c'est un excellent brouteur d'algues filamenteuses. Si l'aquarium en est dépourvu il faut faire une distribution d'algues séchées "nori".
 </t>
